--- a/Clinicas/Estabelecimento8529.xlsx
+++ b/Clinicas/Estabelecimento8529.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardomotta/Library/Mobile Documents/com~apple~CloudDocs/MedSimples/COG/Histórico Clínicas/4º leva/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen/Desktop/MedSimples/Controle Odonto/Programa/Clinicas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{794D34BA-B3A8-4946-B217-4DE8D0185796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F31415-AA1C-A646-B310-51D9EFCF31CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="2580" windowWidth="24460" windowHeight="11380" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume Boletos Emitidos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="183">
   <si>
     <t>CNPJ</t>
   </si>
@@ -577,6 +577,18 @@
   </si>
   <si>
     <t>0.216450216450</t>
+  </si>
+  <si>
+    <t>1 a 7</t>
+  </si>
+  <si>
+    <t>16 a 30</t>
+  </si>
+  <si>
+    <t>maior que 30</t>
+  </si>
+  <si>
+    <t>1 a 8</t>
   </si>
 </sst>
 </file>
@@ -2126,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB3CBD7-FE02-4FED-BE94-72C0FF890B03}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2165,8 +2177,8 @@
       <c r="A3" s="2">
         <v>45658</v>
       </c>
-      <c r="B3" s="3">
-        <v>45839</v>
+      <c r="B3" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -2180,7 +2192,7 @@
         <v>45658</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2194,7 +2206,7 @@
         <v>45658</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2207,8 +2219,8 @@
       <c r="A6" s="2">
         <v>45689</v>
       </c>
-      <c r="B6" s="3">
-        <v>45839</v>
+      <c r="B6" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -2221,8 +2233,8 @@
       <c r="A7" s="2">
         <v>45689</v>
       </c>
-      <c r="B7" s="3">
-        <v>42217</v>
+      <c r="B7" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2235,8 +2247,8 @@
       <c r="A8" s="2">
         <v>45717</v>
       </c>
-      <c r="B8" s="5">
-        <v>45839</v>
+      <c r="B8" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -2249,8 +2261,8 @@
       <c r="A9" s="2">
         <v>45717</v>
       </c>
-      <c r="B9" s="5">
-        <v>42217</v>
+      <c r="B9" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2291,8 +2303,8 @@
       <c r="A12" s="2">
         <v>45748</v>
       </c>
-      <c r="B12" s="5">
-        <v>45839</v>
+      <c r="B12" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C12">
         <v>29</v>
@@ -2305,8 +2317,8 @@
       <c r="A13" s="2">
         <v>45748</v>
       </c>
-      <c r="B13" s="5">
-        <v>42217</v>
+      <c r="B13" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2333,8 +2345,8 @@
       <c r="A15" s="2">
         <v>45778</v>
       </c>
-      <c r="B15" s="3">
-        <v>45839</v>
+      <c r="B15" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C15">
         <v>21</v>
@@ -2347,8 +2359,8 @@
       <c r="A16" s="2">
         <v>45778</v>
       </c>
-      <c r="B16" s="5">
-        <v>42217</v>
+      <c r="B16" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -2375,8 +2387,8 @@
       <c r="A18" s="2">
         <v>45809</v>
       </c>
-      <c r="B18" s="3">
-        <v>45839</v>
+      <c r="B18" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -2389,8 +2401,8 @@
       <c r="A19" s="2">
         <v>45809</v>
       </c>
-      <c r="B19" s="3">
-        <v>42217</v>
+      <c r="B19" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2403,8 +2415,8 @@
       <c r="A20" s="2">
         <v>45839</v>
       </c>
-      <c r="B20" s="5">
-        <v>45839</v>
+      <c r="B20" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -2417,8 +2429,8 @@
       <c r="A21" s="2">
         <v>45839</v>
       </c>
-      <c r="B21" s="5">
-        <v>42217</v>
+      <c r="B21" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -2445,8 +2457,8 @@
       <c r="A23" s="2">
         <v>45870</v>
       </c>
-      <c r="B23" s="3">
-        <v>45839</v>
+      <c r="B23" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -2459,8 +2471,8 @@
       <c r="A24" s="2">
         <v>45870</v>
       </c>
-      <c r="B24" s="5">
-        <v>42217</v>
+      <c r="B24" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2473,8 +2485,8 @@
       <c r="A25" s="2">
         <v>45901</v>
       </c>
-      <c r="B25" s="3">
-        <v>45839</v>
+      <c r="B25" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -2487,8 +2499,8 @@
       <c r="A26" s="2">
         <v>45901</v>
       </c>
-      <c r="B26" s="5">
-        <v>42217</v>
+      <c r="B26" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2959,7 +2971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279530F7-6B46-4C4F-BDA9-9B40E587FBF6}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D125"/>
     </sheetView>
   </sheetViews>
